--- a/src/test/resources/valid_user_out.xlsx
+++ b/src/test/resources/valid_user_out.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -52,43 +52,43 @@
     <t>isEmployee</t>
   </si>
   <si>
+    <t>space</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>phone_20</t>
+  </si>
+  <si>
+    <t>lastname_49</t>
+  </si>
+  <si>
+    <t>login_50</t>
+  </si>
+  <si>
+    <t>name_49</t>
+  </si>
+  <si>
+    <t>zipCode_30</t>
+  </si>
+  <si>
     <t>city_50</t>
   </si>
   <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>lastname_49</t>
-  </si>
-  <si>
-    <t>login_50</t>
+    <t>lastname_50</t>
+  </si>
+  <si>
+    <t>fax_20</t>
   </si>
   <si>
     <t>email_255</t>
   </si>
   <si>
-    <t>zipCode_30</t>
+    <t>address_255</t>
   </si>
   <si>
     <t>name_50</t>
-  </si>
-  <si>
-    <t>phone_30</t>
-  </si>
-  <si>
-    <t>fax_20</t>
-  </si>
-  <si>
-    <t>address_255</t>
-  </si>
-  <si>
-    <t>lastname_50</t>
-  </si>
-  <si>
-    <t>name_49</t>
   </si>
 </sst>
 </file>
@@ -391,28 +391,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -421,7 +421,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>1</v>
@@ -429,40 +429,40 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="b">
         <v>0</v>
@@ -470,43 +470,43 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -514,78 +514,78 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
@@ -593,78 +593,78 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
@@ -675,40 +675,40 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
@@ -716,37 +716,37 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
@@ -757,119 +757,119 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1" t="b">
         <v>1</v>
@@ -883,78 +883,78 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="b">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -983,16 +983,16 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1" t="b">
         <v>0</v>
@@ -1006,28 +1006,28 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>9</v>
@@ -1044,37 +1044,37 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="1" t="b">
         <v>1</v>
@@ -1085,78 +1085,78 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L20" s="1" t="b">
         <v>1</v>
@@ -1167,28 +1167,28 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>17</v>
@@ -1197,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1" t="b">
         <v>0</v>
@@ -1208,110 +1208,110 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>17</v>
@@ -1326,36 +1326,36 @@
         <v>1</v>
       </c>
       <c r="M24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
@@ -1367,30 +1367,30 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>7</v>
@@ -1402,51 +1402,51 @@
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1" t="b">
         <v>0</v>
@@ -1454,19 +1454,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -1475,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>8</v>
@@ -1487,45 +1487,45 @@
         <v>22</v>
       </c>
       <c r="L28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" s="1" t="b">
         <v>1</v>
@@ -1542,22 +1542,22 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>17</v>
@@ -1566,89 +1566,89 @@
         <v>9</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M31" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L32" s="1" t="b">
         <v>1</v>
@@ -1662,25 +1662,25 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>8</v>
@@ -1689,39 +1689,39 @@
         <v>9</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -1730,13 +1730,95 @@
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M34" s="1" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
